--- a/experiment/quadratic/ex9.2.3/Experimentos_Generador/ex9.2.3(Quadratic)__C_Stationarygenerator_alpha_non_zero.xlsx
+++ b/experiment/quadratic/ex9.2.3/Experimentos_Generador/ex9.2.3(Quadratic)__C_Stationarygenerator_alpha_non_zero.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="63">
   <si>
     <t>Leader_Expr</t>
   </si>
@@ -57,16 +57,16 @@
     <t>MIU_value</t>
   </si>
   <si>
-    <t>-40 + x_1 + x_2 + y_1 - 2y_2</t>
-  </si>
-  <si>
-    <t>-29.227749368863755</t>
+    <t>-16.45 + x_1 + x_2 + y_1 - 2y_2</t>
+  </si>
+  <si>
+    <t>-23.55</t>
   </si>
   <si>
     <t>J_0_g</t>
   </si>
   <si>
-    <t>0.15666675595456303</t>
+    <t>0.86</t>
   </si>
   <si>
     <t>Lambda_value</t>
@@ -78,94 +78,97 @@
     <t>Gamma_value</t>
   </si>
   <si>
-    <t>10 - x_1 - 0.1453425393127531y_1 + 0.695382405408262y_2</t>
-  </si>
-  <si>
-    <t>4.0047104988054505</t>
+    <t>-18.852633622820022 - x_1 - 1.383887594436207y_1 - 1.54275224175669y_2</t>
+  </si>
+  <si>
+    <t>28.852633622820022</t>
   </si>
   <si>
     <t>J_0_L0_v</t>
   </si>
   <si>
-    <t>0.13800456429576358</t>
+    <t>0.32</t>
+  </si>
+  <si>
+    <t>-9.6</t>
+  </si>
+  <si>
+    <t>-4.0</t>
+  </si>
+  <si>
+    <t>1.5334039398432555 - x_2 - 0.6778224952340606y_1 + 0.2647744122008051y_2</t>
+  </si>
+  <si>
+    <t>8.466596060156744</t>
+  </si>
+  <si>
+    <t>0.82</t>
+  </si>
+  <si>
+    <t>3.9000000000000004</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>0.15820405925660164</t>
-  </si>
-  <si>
-    <t>10 - x_2 - 0.540858965354142y_1 - 2.8548355198014805y_2</t>
-  </si>
-  <si>
-    <t>42.284046463601946</t>
-  </si>
-  <si>
-    <t>0.5184691683237959</t>
-  </si>
-  <si>
-    <t>-0.4438214798789655</t>
-  </si>
-  <si>
-    <t>-0.6790131371286258</t>
-  </si>
-  <si>
-    <t>-10 - 0.7610620421579353y_1 + 2.144744857840972y_2</t>
-  </si>
-  <si>
-    <t>-23.397811546006505</t>
-  </si>
-  <si>
-    <t>0.6594478945100174</t>
-  </si>
-  <si>
-    <t>0.47982673853801217</t>
-  </si>
-  <si>
-    <t>-20 + 0.9971267947967347y_1 - 0.025790343823472256y_2</t>
-  </si>
-  <si>
-    <t>-29.25608269234365</t>
+    <t>-1.4932429570006356 - 0.8676127938995976y_1 + 0.3389112476170303y_2</t>
+  </si>
+  <si>
+    <t>-8.506757042999364</t>
+  </si>
+  <si>
+    <t>0.26</t>
+  </si>
+  <si>
+    <t>1.4000000000000001</t>
+  </si>
+  <si>
+    <t>-2.3345578210613525 + 0.7271121046446428y_1 - 0.6985930121097145y_2</t>
+  </si>
+  <si>
+    <t>-17.665442178938648</t>
   </si>
   <si>
     <t>J_0_LP_v</t>
   </si>
   <si>
-    <t>0.8823228668879504</t>
-  </si>
-  <si>
-    <t>0.31100578328412976</t>
-  </si>
-  <si>
-    <t>-10 + 0.19010638513018685y_1 + 0.7064249465972601y_2</t>
-  </si>
-  <si>
-    <t>-18.614342622631664</t>
+    <t>0.85</t>
+  </si>
+  <si>
+    <t>-2.7</t>
+  </si>
+  <si>
+    <t>-9.7</t>
+  </si>
+  <si>
+    <t>-40.78113747087482 + 1.0802796017792842y_1 + 1.765515780554967y_2</t>
+  </si>
+  <si>
+    <t>-30.781137470874818</t>
   </si>
   <si>
     <t>J_Ne_L0_v</t>
   </si>
   <si>
-    <t>0.2917832556941835</t>
-  </si>
-  <si>
-    <t>0.22309972647244758</t>
-  </si>
-  <si>
-    <t>0.16948106745872205</t>
-  </si>
-  <si>
-    <t>-20 - 0.01714153002851966y_1 + 0.8461349183854041y_2</t>
-  </si>
-  <si>
-    <t>-27.98418591932363</t>
-  </si>
-  <si>
-    <t>0.8952090405611031</t>
-  </si>
-  <si>
-    <t>0.19664570130976722</t>
+    <t>0.7</t>
+  </si>
+  <si>
+    <t>9.3</t>
+  </si>
+  <si>
+    <t>4.2</t>
+  </si>
+  <si>
+    <t>-60.576343288851234 + 0.43776036150533093y_1 + 2.1206665254536468y_2</t>
+  </si>
+  <si>
+    <t>-40.576343288851234</t>
+  </si>
+  <si>
+    <t>0.51</t>
+  </si>
+  <si>
+    <t>4.4</t>
   </si>
   <si>
     <t>x_1</t>
@@ -180,40 +183,40 @@
     <t>y_2</t>
   </si>
   <si>
-    <t>0.6847124798650022</t>
-  </si>
-  <si>
-    <t>0.3610102338450799</t>
-  </si>
-  <si>
-    <t>-9.531809102458938</t>
-  </si>
-  <si>
-    <t>-9.629168509942552</t>
+    <t>1.55</t>
+  </si>
+  <si>
+    <t>2.7</t>
+  </si>
+  <si>
+    <t>-5.1</t>
+  </si>
+  <si>
+    <t>-8.65</t>
   </si>
   <si>
     <t>vec_bf</t>
   </si>
   <si>
-    <t>-19.684511821867254</t>
-  </si>
-  <si>
-    <t>-20.990646930608186</t>
+    <t>-27.073260991835753</t>
+  </si>
+  <si>
+    <t>-18.835148139099527</t>
   </si>
   <si>
     <t>vec_BF</t>
   </si>
   <si>
-    <t>-2.104766962403028</t>
-  </si>
-  <si>
-    <t>-2.134627489604843</t>
-  </si>
-  <si>
-    <t>2.1988637417120582</t>
-  </si>
-  <si>
-    <t>1.4308531741939357</t>
+    <t>-10.959999999999999</t>
+  </si>
+  <si>
+    <t>4.880000000000001</t>
+  </si>
+  <si>
+    <t>-16.87055287772212</t>
+  </si>
+  <si>
+    <t>-33.74301536696863</t>
   </si>
   <si>
     <t>vec_alpha</t>
@@ -718,10 +721,10 @@
         <v>28</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="F4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -741,47 +744,47 @@
         <v>34</v>
       </c>
       <c r="F5" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E7" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -799,30 +802,30 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -840,17 +843,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -868,27 +871,27 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -906,17 +909,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>0.025949896775767423</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3">
-        <v>0.23293037311434261</v>
+        <v>1.92</v>
       </c>
     </row>
   </sheetData>
